--- a/src/test/input/used/NLBM/MVP3 scope for TF_DC B4-009_20250224.xlsx
+++ b/src/test/input/used/NLBM/MVP3 scope for TF_DC B4-009_20250224.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse_workspace\LC_GEN\src\test\input\group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB08980-F9D0-4957-9B7F-8E9EF411CE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EA87A5-90A3-4312-88AA-0F1700034A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="2340" windowWidth="29020" windowHeight="15700" firstSheet="1" activeTab="2" xr2:uid="{FD512113-F5B0-4DB7-82FF-ABFE321860E8}"/>
   </bookViews>
@@ -2746,9 +2746,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M20" sqref="M20:M32"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -3665,7 +3665,7 @@
         <v>168</v>
       </c>
       <c r="N20" s="87" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
@@ -3710,7 +3710,7 @@
         <v>168</v>
       </c>
       <c r="N21" s="87" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
@@ -3755,7 +3755,7 @@
         <v>168</v>
       </c>
       <c r="N22" s="87" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
@@ -3800,7 +3800,7 @@
         <v>168</v>
       </c>
       <c r="N23" s="87" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="29" hidden="1" x14ac:dyDescent="0.35">
@@ -3845,7 +3845,7 @@
         <v>120</v>
       </c>
       <c r="N24" s="87" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="29" hidden="1" x14ac:dyDescent="0.35">
@@ -3890,7 +3890,7 @@
         <v>120</v>
       </c>
       <c r="N25" s="87" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="29" hidden="1" x14ac:dyDescent="0.35">
@@ -3935,7 +3935,7 @@
         <v>120</v>
       </c>
       <c r="N26" s="87" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="29" hidden="1" x14ac:dyDescent="0.35">
@@ -3980,7 +3980,7 @@
         <v>129</v>
       </c>
       <c r="N27" s="87" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="29" hidden="1" x14ac:dyDescent="0.35">
@@ -4070,7 +4070,7 @@
         <v>168</v>
       </c>
       <c r="N29" s="87" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
@@ -4115,7 +4115,7 @@
         <v>168</v>
       </c>
       <c r="N30" s="87" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
@@ -4160,7 +4160,7 @@
         <v>168</v>
       </c>
       <c r="N31" s="87" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
@@ -4205,7 +4205,7 @@
         <v>168</v>
       </c>
       <c r="N32" s="87" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
